--- a/stimuli_practice.xlsx
+++ b/stimuli_practice.xlsx
@@ -62,9 +62,6 @@
     <t>Brauchst du den blauen großen Aufkleber?</t>
   </si>
   <si>
-    <t>Welche Frage passt besser?</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Brauchst du den  dreieckigen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Wie fragst Du?</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AE3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,11 +688,11 @@
       </c>
       <c r="K1" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="9">
         <f t="shared" ref="L1:O2" ca="1" si="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M1" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -700,11 +700,11 @@
       </c>
       <c r="N1" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O1" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>7</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -770,19 +770,19 @@
         <v>uzrdf</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="L2" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="9">
         <f t="shared" ca="1" si="0"/>
@@ -827,34 +827,34 @@
         <v>6</v>
       </c>
       <c r="V2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="X2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AC2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="AE2" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>1</v>
@@ -872,49 +872,49 @@
         <v>ubrcf</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>8</v>
@@ -923,34 +923,34 @@
         <v>8</v>
       </c>
       <c r="V3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="19" t="s">
-        <v>29</v>
-      </c>
       <c r="X3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="AB3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="AC3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AE3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/stimuli_practice.xlsx
+++ b/stimuli_practice.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SFB833-FS\Documents\GitHub\huashan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>1</t>
   </si>
@@ -19,16 +27,6 @@
     <t>39</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>uerdc</t>
-    </r>
-  </si>
-  <si>
     <t>er</t>
   </si>
   <si>
@@ -59,22 +57,9 @@
     <t>Brauchst du den blauen großen Aufkleber?</t>
   </si>
   <si>
-    <t>Wie fragst Du?</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>uzrdf</t>
-    </r>
-  </si>
-  <si>
     <t>zr</t>
   </si>
   <si>
@@ -102,16 +87,6 @@
     <t>3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ubrcf</t>
-    </r>
-  </si>
-  <si>
     <t>br</t>
   </si>
   <si>
@@ -137,33 +112,23 @@
   </si>
   <si>
     <t>Brauchst du den  dreieckigen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Wie fragen Sie?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="Calibri"/>
@@ -189,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -450,189 +415,184 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff44546a"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF44546A"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -834,7 +794,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -853,7 +813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,9 +1064,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1123,7 +1089,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1142,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1376,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,9 +1355,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1405,7 +1377,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1424,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,7 +1452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1506,7 +1478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1532,7 +1504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1558,7 +1530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,7 +1556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1610,7 +1582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1636,7 +1608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1662,7 +1634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1675,562 +1647,340 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE1:AE3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="10.8516" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="32" width="10.85546875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="str">
         <f>"u"&amp;E1&amp;""&amp;F1</f>
+        <v>uerdc</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s" s="8">
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9">
+        <f t="shared" ref="J1:N2" ca="1" si="0">RANDBETWEEN(9,10)</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="10">
+        <f t="shared" ref="K1:N1" si="1">3</f>
+        <v>3</v>
+      </c>
+      <c r="L1" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M1" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N1" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O1" s="12">
+        <f t="shared" ref="O1:O2" ca="1" si="2">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9">
-        <f t="shared" si="1" ref="J1:N2">RANDBETWEEN(9,10)</f>
+      <c r="Q1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10">
-        <f t="shared" si="2" ref="K1:N1">3</f>
-        <v>3</v>
-      </c>
-      <c r="L1" s="10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M1" s="10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N1" s="11">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O1" s="12">
-        <f t="shared" si="6" ref="O1:O2">RANDBETWEEN(1,3)</f>
-        <v>3</v>
-      </c>
-      <c r="P1" t="s" s="13">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="T1" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="U1" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="X1" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z1" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="AA1" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="AB1" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="AC1" t="s" s="4">
+      <c r="AD1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="AE1" t="s" s="4">
-        <v>13</v>
+      <c r="AE1" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
+    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>"u"&amp;E2&amp;""&amp;F2</f>
+        <v>uzrdf</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <f>"u"&amp;E2&amp;""&amp;F2</f>
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="H2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="J2" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K2" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L2" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M2" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N2" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O2" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s" s="17">
+      <c r="W2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s" s="18">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s" s="19">
+      <c r="X2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K2" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L2" s="20">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="M2" s="20">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N2" s="20">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O2" s="12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="P2" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="T2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="U2" t="s" s="15">
-        <v>7</v>
-      </c>
-      <c r="V2" t="s" s="13">
+      <c r="AD2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="AC2" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="AD2" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="s" s="4">
-        <v>13</v>
+      <c r="AE2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="21">
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="str">
+        <f>"u"&amp;E3&amp;""&amp;F3</f>
+        <v>ubrcf</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s" s="21">
-        <f>"u"&amp;E3&amp;""&amp;F3</f>
+      <c r="I3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s" s="22">
+      <c r="J3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s" s="23">
+      <c r="Q3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s" s="24">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s" s="25">
+      <c r="W3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s" s="26">
+      <c r="X3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s" s="27">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s" s="28">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s" s="22">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s" s="22">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s" s="22">
-        <v>7</v>
-      </c>
-      <c r="O3" t="s" s="29">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s" s="27">
+      <c r="AD3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s" s="28">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s" s="22">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s" s="29">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s" s="27">
+      <c r="AE3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W3" t="s" s="28">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s" s="22">
-        <v>32</v>
-      </c>
-      <c r="Y3" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="Z3" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="AA3" t="s" s="22">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="s" s="22">
-        <v>10</v>
-      </c>
-      <c r="AC3" t="s" s="22">
-        <v>33</v>
-      </c>
-      <c r="AD3" t="s" s="22">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="s" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
